--- a/xlsx/罗马尼亚武装部队_intext.xlsx
+++ b/xlsx/罗马尼亚武装部队_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
   <si>
     <t>罗马尼亚武装部队</t>
   </si>
@@ -29,7 +29,7 @@
     <t>布加勒斯特</t>
   </si>
   <si>
-    <t>政策_政策_美國_罗马尼亚武装部队</t>
+    <t>政策_政策_美国_罗马尼亚武装部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8A%B3%E6%96%AF%C2%B7%E7%BA%A6%E7%BF%B0%E5%B0%BC%E6%96%AF</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -233,19 +233,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
@@ -533,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
@@ -617,19 +617,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
+    <t>刚果共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E9%98%B2%E8%89%A6</t>
   </si>
   <si>
-    <t>巡防艦</t>
+    <t>巡防舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%A4%E5%8D%AB%E8%88%B0</t>
@@ -737,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>步戰車</t>
+    <t>步战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%9E%AA</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%A8%AE%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>特種部隊</t>
+    <t>特种部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%86%B2%E9%94%8B%E6%9E%AA</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南斯拉夫戰爭</t>
+    <t>南斯拉夫战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -869,9 +869,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
   </si>
   <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%BF%E6%B6%85%E8%8C%A8%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%A3%AB</t>
   </si>
   <si>
-    <t>軍士</t>
+    <t>军士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E5%A3%AB%E9%95%BF</t>
@@ -983,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%86%E5%B0%87</t>
   </si>
   <si>
-    <t>准將</t>
+    <t>准将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B0%86</t>
@@ -5473,7 +5470,7 @@
         <v>283</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>116</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5499,10 +5496,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5528,10 +5525,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5557,10 +5554,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5586,10 +5583,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5615,10 +5612,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5644,10 +5641,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5673,10 +5670,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5702,10 +5699,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5731,10 +5728,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -5760,10 +5757,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5789,10 +5786,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>10</v>
@@ -5818,10 +5815,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
-      </c>
-      <c r="F154" t="s">
-        <v>308</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5847,10 +5844,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5876,10 +5873,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5905,10 +5902,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5934,10 +5931,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5963,10 +5960,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
         <v>317</v>
-      </c>
-      <c r="F159" t="s">
-        <v>318</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5992,10 +5989,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
         <v>319</v>
-      </c>
-      <c r="F160" t="s">
-        <v>320</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6021,10 +6018,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" t="s">
         <v>321</v>
-      </c>
-      <c r="F161" t="s">
-        <v>322</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6050,10 +6047,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" t="s">
         <v>323</v>
-      </c>
-      <c r="F162" t="s">
-        <v>324</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6079,10 +6076,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" t="s">
         <v>325</v>
-      </c>
-      <c r="F163" t="s">
-        <v>326</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6108,10 +6105,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" t="s">
         <v>327</v>
-      </c>
-      <c r="F164" t="s">
-        <v>328</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6137,10 +6134,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>328</v>
+      </c>
+      <c r="F165" t="s">
         <v>329</v>
-      </c>
-      <c r="F165" t="s">
-        <v>330</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -6166,10 +6163,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>330</v>
+      </c>
+      <c r="F166" t="s">
         <v>331</v>
-      </c>
-      <c r="F166" t="s">
-        <v>332</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
